--- a/templates/AutomationOrg/SOAPI.xlsx
+++ b/templates/AutomationOrg/SOAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\git\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77650979-3173-42AE-B678-64D094AA2767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACA57C-13A0-4B39-8E2D-E1E12D3EF646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20505" yWindow="60" windowWidth="28710" windowHeight="10890" tabRatio="807" activeTab="8" xr2:uid="{4577C28F-78BB-496A-9D91-BBA99229E5AB}"/>
+    <workbookView xWindow="25770" yWindow="2745" windowWidth="15375" windowHeight="7875" tabRatio="807" firstSheet="2" activeTab="7" xr2:uid="{4577C28F-78BB-496A-9D91-BBA99229E5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Header" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2912C-F36A-4ECF-8EDC-A40A837A9A1D}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1096,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E2E4B4-F8F1-4C6E-9FE2-5A2D837A3692}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FC22D3-7105-47EB-9F93-CBB5CCC1A1D8}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0427A9-21DA-4804-AC3D-33AA86AB41F7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
